--- a/germline_schema/templates/iarc_submission_template.xlsx
+++ b/germline_schema/templates/iarc_submission_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\submission format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-wg\germline_schema\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission" sheetId="1" r:id="rId1"/>
     <sheet name="Inferences" sheetId="2" r:id="rId2"/>
     <sheet name="Genotype" sheetId="3" r:id="rId3"/>
-    <sheet name="Haplotype Information" sheetId="4" r:id="rId4"/>
+    <sheet name="Tool Settings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>IARC Inferred Allele Submission Sheet</t>
   </si>
@@ -78,13 +78,37 @@
   </si>
   <si>
     <t>Please extend the table if necessary. Notes below describe the meaning and format of each field</t>
+  </si>
+  <si>
+    <t>'Reference genes and alleles' - this is the set of genes and alleles provided to the inference tool.</t>
+  </si>
+  <si>
+    <t>'Number of sequences': where sequences are counted the count should be conducted after quality control UMI processing and replicate/error cloud removal.</t>
+  </si>
+  <si>
+    <t>Question for review - should this be the number of distinct sequences  or a molecule count?</t>
+  </si>
+  <si>
+    <t>Tool Settings</t>
+  </si>
+  <si>
+    <t>Please provide details of the inference tool, including serttings used for this inference.</t>
+  </si>
+  <si>
+    <t>{{Inference_Tool:properties!completed_by,type+Response}}</t>
+  </si>
+  <si>
+    <t>'Number of sequences': where sequences are counted the count should be conducted after quality control  UMI processing and replicate/error cloud removal.</t>
+  </si>
+  <si>
+    <t>Question for review - should this be the number of distinct sequences or a molecule count?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +118,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,13 +153,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDBE014-238F-4800-B897-D1AD67EB2DA2}">
   <dimension ref="A3:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,10 +526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4234DA9-232C-4B2A-ABF1-BACD0DE276BA}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +561,22 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -539,10 +588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B8F-0399-49E8-829B-AE2EEEA3D6FE}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,8 +624,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -588,12 +658,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC39E8E7-1CBF-40F2-BC7F-5880E5FF2933}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/germline_schema/templates/iarc_submission_template.xlsx
+++ b/germline_schema/templates/iarc_submission_template.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Submission" sheetId="1" r:id="rId1"/>
-    <sheet name="Inferences" sheetId="2" r:id="rId2"/>
-    <sheet name="Genotype" sheetId="3" r:id="rId3"/>
-    <sheet name="Tool Settings" sheetId="4" r:id="rId4"/>
+    <sheet name="Repertoire" sheetId="5" r:id="rId2"/>
+    <sheet name="Inferences" sheetId="2" r:id="rId3"/>
+    <sheet name="Genotype" sheetId="3" r:id="rId4"/>
+    <sheet name="Tool Settings" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>IARC Inferred Allele Submission Sheet</t>
   </si>
@@ -102,6 +103,36 @@
   </si>
   <si>
     <t>Question for review - should this be the number of distinct sequences or a molecule count?</t>
+  </si>
+  <si>
+    <t>The table should be used to describe sequences inferred from a single invididual, in a single genotype. If inferences are made from multiple individuals and/or multiple genotypes,</t>
+  </si>
+  <si>
+    <t>please create a separate table on this tab for each genotyope from which inferences are made, and cross-reference to separate genotype tables on the genotype tab.</t>
+  </si>
+  <si>
+    <t>Subject id:</t>
+  </si>
+  <si>
+    <t>Genotype id (as listed on the Genotype tab):</t>
+  </si>
+  <si>
+    <t>If inferences are made from multiple genotypes, please create separate tables for each genotype, and cross-reference to the inferences made from each one on the Inferences tab.</t>
+  </si>
+  <si>
+    <t>Genotype Id:</t>
+  </si>
+  <si>
+    <t>Subject Id (as listed on Inferences tab):</t>
+  </si>
+  <si>
+    <t>Repertoire</t>
+  </si>
+  <si>
+    <t>Please provide details of the repertoire from which inferences were made, and the methods by which it was constructed.</t>
+  </si>
+  <si>
+    <t>{{Repertoire:properties!completed_by,type+Response}}</t>
   </si>
 </sst>
 </file>
@@ -476,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDBE014-238F-4800-B897-D1AD67EB2DA2}">
-  <dimension ref="A3:C12"/>
+  <dimension ref="A3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,21 +531,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -525,11 +556,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4234DA9-232C-4B2A-ABF1-BACD0DE276BA}">
-  <dimension ref="A3:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716EADB-F444-4553-95C9-4837A8AACE3F}">
+  <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4234DA9-232C-4B2A-ABF1-BACD0DE276BA}">
+  <dimension ref="A3:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,33 +614,53 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -586,12 +670,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B8F-0399-49E8-829B-AE2EEEA3D6FE}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,39 +698,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -656,7 +755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC39E8E7-1CBF-40F2-BC7F-5880E5FF2933}">
   <dimension ref="B3:B12"/>
   <sheetViews>

--- a/germline_schema/templates/iarc_submission_template.xlsx
+++ b/germline_schema/templates/iarc_submission_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-wg\germline_schema\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9781401-774A-4788-B2F1-349006E1E0DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>IARC Inferred Allele Submission Sheet</t>
   </si>
@@ -102,9 +103,6 @@
     <t>'Number of sequences': where sequences are counted the count should be conducted after quality control  UMI processing and replicate/error cloud removal.</t>
   </si>
   <si>
-    <t>Question for review - should this be the number of distinct sequences or a molecule count?</t>
-  </si>
-  <si>
     <t>The table should be used to describe sequences inferred from a single invididual, in a single genotype. If inferences are made from multiple individuals and/or multiple genotypes,</t>
   </si>
   <si>
@@ -133,6 +131,21 @@
   </si>
   <si>
     <t>{{Repertoire:properties!completed_by,type+Response}}</t>
+  </si>
+  <si>
+    <t>Acknowledgements</t>
+  </si>
+  <si>
+    <t>Please list the individuals whose contribution to this work should be acknowledged</t>
+  </si>
+  <si>
+    <t>{{Acknowledgements:properties#10}}</t>
+  </si>
+  <si>
+    <t>{{Acknowledgements:properties!type,completed_by}}</t>
+  </si>
+  <si>
+    <t>Explanation of fields</t>
   </si>
 </sst>
 </file>
@@ -184,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -193,6 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDBE014-238F-4800-B897-D1AD67EB2DA2}">
-  <dimension ref="A3:C13"/>
+  <dimension ref="A3:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +561,31 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -559,15 +598,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716EADB-F444-4553-95C9-4837A8AACE3F}">
   <dimension ref="B3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -575,12 +614,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -590,10 +629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4234DA9-232C-4B2A-ABF1-BACD0DE276BA}">
-  <dimension ref="A3:B22"/>
+  <dimension ref="A3:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,22 +655,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,17 +689,12 @@
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -700,17 +734,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/germline_schema/templates/iarc_submission_template.xlsx
+++ b/germline_schema/templates/iarc_submission_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-wg\germline_schema\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9781401-774A-4788-B2F1-349006E1E0DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5768D96-E123-41CC-B7AB-7F44294A21A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Inferences" sheetId="2" r:id="rId3"/>
     <sheet name="Genotype" sheetId="3" r:id="rId4"/>
     <sheet name="Tool Settings" sheetId="4" r:id="rId5"/>
+    <sheet name="Notes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>IARC Inferred Allele Submission Sheet</t>
   </si>
@@ -103,27 +104,6 @@
     <t>'Number of sequences': where sequences are counted the count should be conducted after quality control  UMI processing and replicate/error cloud removal.</t>
   </si>
   <si>
-    <t>The table should be used to describe sequences inferred from a single invididual, in a single genotype. If inferences are made from multiple individuals and/or multiple genotypes,</t>
-  </si>
-  <si>
-    <t>please create a separate table on this tab for each genotyope from which inferences are made, and cross-reference to separate genotype tables on the genotype tab.</t>
-  </si>
-  <si>
-    <t>Subject id:</t>
-  </si>
-  <si>
-    <t>Genotype id (as listed on the Genotype tab):</t>
-  </si>
-  <si>
-    <t>If inferences are made from multiple genotypes, please create separate tables for each genotype, and cross-reference to the inferences made from each one on the Inferences tab.</t>
-  </si>
-  <si>
-    <t>Genotype Id:</t>
-  </si>
-  <si>
-    <t>Subject Id (as listed on Inferences tab):</t>
-  </si>
-  <si>
     <t>Repertoire</t>
   </si>
   <si>
@@ -146,6 +126,91 @@
   </si>
   <si>
     <t>Explanation of fields</t>
+  </si>
+  <si>
+    <t>Please check the Notes tab for general guidance on completing this submission.</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Unless explicitly stated otherwise, all sequences should be numbered from 1 - that is, a sequence of length n should be numbered
+from 1 to n.</t>
+  </si>
+  <si>
+    <t>Output from Inference Tools</t>
+  </si>
+  <si>
+    <t>Inference tools authors have provided notes on the information that their tools can provide, which will be helpful in completing the
+Inferences and Genotype tabs. The notes are available from IARC on request.</t>
+  </si>
+  <si>
+    <t>Spreadsheet Structure</t>
+  </si>
+  <si>
+    <t>Inferences and Genotypes</t>
+  </si>
+  <si>
+    <t>If multiple tools have been used, please create additional tables as needed.</t>
+  </si>
+  <si>
+    <t>Your submission will be read into the IARC database automatically. To facilitate this, pleae don't make alterations to the layout or 
+structure of the workbook. In particular, please do not alter the positioning of tables, or the names of header fields.
+Some tables (e.g. Acknowledgements) may be extended as necessary - to do this, just insert additional rows into the table.</t>
+  </si>
+  <si>
+    <t>Sequence Numbering</t>
+  </si>
+  <si>
+    <t>If more than one inference tool has been employed, please provide the genotypes inferred from each tool, as described above.
+In addition, please provide the settings used for each tool, by providing a table for each tool in the Tool Settings tab.</t>
+  </si>
+  <si>
+    <t>The table should be used to describe sequences inferred from a single invididual, in a single genotype. If inferences are made from multiple individuals and/or multiple genotypes, please create a copy of the  table for each genotyope from which inferences are made, and cross-reference to separate genotype tables on the genotype tab. (see Notes tab for examples)</t>
+  </si>
+  <si>
+    <t>If inferences are made from multiple genotypes, please create a copy of the table for each genotype, and cross-reference to the inferences made from each one on the Inferences tab. (see Notes tab for examples)</t>
+  </si>
+  <si>
+    <t>Genotype Id</t>
+  </si>
+  <si>
+    <t>Subject Id (as listed on Inferences tab)</t>
+  </si>
+  <si>
+    <t>Tool used to infer genotype</t>
+  </si>
+  <si>
+    <t>Subject id</t>
+  </si>
+  <si>
+    <t>Genotype id (as listed on the Genotype tab)</t>
+  </si>
+  <si>
+    <t>The submission should contain inferences derived from a single sequence dataset, detailed on the Repertoire tab. The
+dataset may contain sequences from more than one subject, in which case separate genotypes must be derived for each
+subject from which inferences are made. Species, and ethnicity, if provided, must be the same for all subjects for
+which inferences are submitted.</t>
+  </si>
+  <si>
+    <t>You may submit inferences from multiple subjects and genotypes by duplicating the Subjects and Genotypes tables. 
+Some examples of typical scenarios may help:
+1. Inferences from a single subject, using a single tool from which you have derived a single genotype. 
+- In this case you could refer to the subject as Subject 1, and the genotype as Genotype 1. (you may use any 
+designations you wish, and may prefer to use more meaningful designations)
+- There would be a single Inference table and a single Genotype table. Both would be labelled Subject 1 and Genotype 1.
+2. Inferences from a single subject, using two inference tools. 
+- In this case there would be a single subject, say Subject 1, but two genotypes, say Genotype 1 and Genotype 2, one derived
+from each inference tool.
+- There would be two inference tables, one labelled Subject 1, Genotype 1 and one labelled Subject 1, Genotype 2. Each would 
+contain information derived from the corresponding tool and inferred genotype. Assuming that the same allele was inferred 
+from both genotypes, it would be present in both inference tables.
+- Likewise there would be two genotype tables, one labelled Subect 1, Genotype 1, and one labelled Subect 1, Genotype 2 
+3. Inferences from two subjects, using a single inference tool.
+- In this case there would be two subjects, say Subject 1 and Subject 2, and two genotypes, one for each subject, say Genotype 1
+and Genotype 2.
+- There would be two inference tables, one labelled Subject 1, Genotype 1 and one labelled Subject 2, Genotype 2.
+- Likewise there would be two Genotype tables, also labelled Subject 1, Genotype 1 and Subject 2, Genotype 2.</t>
   </si>
 </sst>
 </file>
@@ -185,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,11 +258,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -207,6 +287,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDBE014-238F-4800-B897-D1AD67EB2DA2}">
   <dimension ref="A3:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +636,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1</v>
@@ -565,27 +661,27 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +702,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -614,12 +710,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -629,15 +725,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4234DA9-232C-4B2A-ABF1-BACD0DE276BA}">
-  <dimension ref="A3:B21"/>
+  <dimension ref="A3:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -645,56 +741,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="6" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -706,80 +805,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B8F-0399-49E8-829B-AE2EEEA3D6FE}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-    </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -791,10 +898,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC39E8E7-1CBF-40F2-BC7F-5880E5FF2933}">
-  <dimension ref="B3:B12"/>
+  <dimension ref="B3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,13 +916,102 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1977C40A-6303-4C80-A31F-A2F395B92B3F}">
+  <dimension ref="B2:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="117.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/germline_schema/templates/iarc_submission_template.xlsx
+++ b/germline_schema/templates/iarc_submission_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-wg\germline_schema\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5768D96-E123-41CC-B7AB-7F44294A21A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2C660A-82A5-490F-82C3-4D0565FE6F41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDBE014-238F-4800-B897-D1AD67EB2DA2}">
   <dimension ref="A3:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,12 +632,12 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -939,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1977C40A-6303-4C80-A31F-A2F395B92B3F}">
   <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/germline_schema/templates/iarc_submission_template.xlsx
+++ b/germline_schema/templates/iarc_submission_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-wg\germline_schema\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2C660A-82A5-490F-82C3-4D0565FE6F41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6157AA9-CCA4-48C7-A19F-04163B8F8B5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>IARC Inferred Allele Submission Sheet</t>
   </si>
@@ -86,12 +86,6 @@
     <t>'Reference genes and alleles' - this is the set of genes and alleles provided to the inference tool.</t>
   </si>
   <si>
-    <t>'Number of sequences': where sequences are counted the count should be conducted after quality control UMI processing and replicate/error cloud removal.</t>
-  </si>
-  <si>
-    <t>Question for review - should this be the number of distinct sequences  or a molecule count?</t>
-  </si>
-  <si>
     <t>Tool Settings</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>{{Inference_Tool:properties!completed_by,type+Response}}</t>
-  </si>
-  <si>
-    <t>'Number of sequences': where sequences are counted the count should be conducted after quality control  UMI processing and replicate/error cloud removal.</t>
   </si>
   <si>
     <t>Repertoire</t>
@@ -211,6 +202,27 @@
 and Genotype 2.
 - There would be two inference tables, one labelled Subject 1, Genotype 1 and one labelled Subject 2, Genotype 2.
 - Likewise there would be two Genotype tables, also labelled Subject 1, Genotype 1 and Subject 2, Genotype 2.</t>
+  </si>
+  <si>
+    <t>Biosample Id(s)</t>
+  </si>
+  <si>
+    <t>Subject Id' should be assigned by the submitter, to differentiate between different subjects from which inferences are made in this submission</t>
+  </si>
+  <si>
+    <t>Biosample Id(s)'  should list the accession numbers of samples from which this genotype was inferred  (e.g. NIH biosamples or ENA samples)</t>
+  </si>
+  <si>
+    <t>Run Id(s)</t>
+  </si>
+  <si>
+    <t>Run Id(s)'  should list the accession numbers of sequence sets in the repository (e.g. NIH SRA or ENA) listing the raw sequences from which this inference was made</t>
+  </si>
+  <si>
+    <t>'Number of sequences': where sequences are counted the count should be conducted after quality control  UMI processing and replicate/error cloud removal (where these are used).</t>
+  </si>
+  <si>
+    <t>'Number of sequences': where sequences are counted the count should be conducted after quality control UMI processing and replicate/error cloud removal (where these are used).</t>
   </si>
 </sst>
 </file>
@@ -277,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -285,7 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -614,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDBE014-238F-4800-B897-D1AD67EB2DA2}">
   <dimension ref="A3:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
@@ -638,7 +649,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,27 +672,27 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>31</v>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +713,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -710,12 +721,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4234DA9-232C-4B2A-ABF1-BACD0DE276BA}">
-  <dimension ref="A3:C22"/>
+  <dimension ref="A3:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,8 +761,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>43</v>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,39 +772,55 @@
       <c r="B8" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>8</v>
       </c>
     </row>
@@ -805,10 +832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71931B8F-0399-49E8-829B-AE2EEEA3D6FE}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,48 +860,49 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -883,10 +911,20 @@
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -908,22 +946,22 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
@@ -950,67 +988,67 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="14" spans="2:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="17" spans="2:2" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>51</v>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>20</v>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>42</v>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/germline_schema/templates/iarc_submission_template.xlsx
+++ b/germline_schema/templates/iarc_submission_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-wg\germline_schema\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6157AA9-CCA4-48C7-A19F-04163B8F8B5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEAEAA4-A9B6-4470-A1EE-AA88DF882D34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4" xr2:uid="{DD85FD95-12E7-448E-A91F-E6CA1F927527}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>IARC Inferred Allele Submission Sheet</t>
   </si>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>'Number of sequences': where sequences are counted the count should be conducted after quality control UMI processing and replicate/error cloud removal (where these are used).</t>
+  </si>
+  <si>
+    <t>If the same tool has been used with multiple settings (e.g. with different starting databases), please create a table for each setting used. 
+Please use a unique tool_name for each tool and setting combination, and use this name when referring to the tool in the Genotype table.</t>
   </si>
 </sst>
 </file>
@@ -289,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -309,6 +313,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4234DA9-232C-4B2A-ABF1-BACD0DE276BA}">
   <dimension ref="A3:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -936,10 +941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC39E8E7-1CBF-40F2-BC7F-5880E5FF2933}">
-  <dimension ref="B3:B13"/>
+  <dimension ref="B3:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,13 +964,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
